--- a/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_test.xlsx
+++ b/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA15B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B760&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139070&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL131193</t>
+          <t>CHEMBL359486</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,44 +692,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)Cc2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cnc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)Cc2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cnc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>556.67</v>
+        <v>540.63</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>60.66</v>
+        <v>85.05</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1399A0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL359486</t>
+          <t>CHEMBL91829</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cnc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN(C)C[C@@H]1CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCO1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cnc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN(C)C[C@@H]1CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCO1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>540.63</v>
+        <v>468.56</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>85.05</v>
+        <v>68.5</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139EE0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL91829</t>
+          <t>CHEMBL366266</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CN(C)C[C@@H]1CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCO1</t>
+          <t>O=C1NC(=O)C(c2cn(CCCn3ccnc3)c3ccccc23)=C1Nc1ccccc1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CN(C)C[C@@H]1CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCO1</t>
+          <t>O=C1NC(=O)C(c2cn(CCCn3ccnc3)c3ccccc23)=C1Nc1ccccc1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>468.56</v>
+        <v>411.47</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>68.5</v>
+        <v>80.95</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A810&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA37D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B4C0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B680&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL360304</t>
+          <t>CHEMBL184146</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cccc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN1CCN(CCCn2cc(C3=C(Nc4ccccc4)C(=O)NC3=O)c3ccccc32)CC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cccc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN1CCN(CCCn2cc(C3=C(Nc4ccccc4)C(=O)NC3=O)c3ccccc32)CC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>539.64</v>
+        <v>443.55</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>72.16</v>
+        <v>69.61</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138270&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL367107</t>
+          <t>CHEMBL426587</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2nn(CCCN3CCCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4csc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2nn(CCCN3CCCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4csc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>565.6799999999999</v>
+        <v>545.67</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138660&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL105620</t>
+          <t>CHEMBL367107</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CN1CCOCCOCCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>O=C1NC(=O)C(c2nn(CCCN3CCCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CN1CCOCCOCCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>O=C1NC(=O)C(c2nn(CCCN3CCCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>555.6799999999999</v>
+        <v>565.6799999999999</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8</v>
+      </c>
+      <c r="L11" t="n">
         <v>6</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
       <c r="M11" t="n">
-        <v>80.97</v>
+        <v>72.16</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138970&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139310&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA3ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139540&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL187235</t>
+          <t>CHEMBL367106</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(CCCN3CCCCC3)c3ccccc23)=C1Nc1ccccc1</t>
+          <t>O=C1NC(=O)C(c2nn(CCCN3CCOCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(CCCN3CCCCC3)c3ccccc23)=C1Nc1ccccc1</t>
+          <t>O=C1NC(=O)C(c2nn(CCCN3CCOCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>428.54</v>
+        <v>581.6799999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>66.37</v>
+        <v>81.39</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1397E0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL367106</t>
+          <t>CHEMBL105477</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2nn(CCCN3CCOCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
+          <t>CN1CCOCCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2nn(CCCN3CCOCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
+          <t>CN1CCOCCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>581.6799999999999</v>
+        <v>511.63</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1468,16 +1468,16 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>81.39</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1398C0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL184042</t>
+          <t>CHEMBL321315</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(CCCN3CCCC3)c3ccccc23)=C1Nc1ccccc1</t>
+          <t>CN1CCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCCOCC1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(CCCN3CCCC3)c3ccccc23)=C1Nc1ccccc1</t>
+          <t>CN1CCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCCOCC1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>414.51</v>
+        <v>512.61</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>66.37</v>
+        <v>77.73</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139A10&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL103628</t>
+          <t>CHEMBL103421</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CN1CCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCN(C)CC1</t>
+          <t>CCN1CCOCCN(CC)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCC1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CN1CCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCN(C)CC1</t>
+          <t>CCN1CCOCCN(CC)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCC1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,16 +1595,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>524.67</v>
+        <v>583.73</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>65.75</v>
+        <v>80.97</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA05F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139A80&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,52 +1636,52 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL321315</t>
+          <t>C44714538</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CN1CCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCCOCC1</t>
+          <t>Cc1ccc(C(=O)N2C[C@@H](C(=O)NCCc3c(C)[nH]c4ccc(C#N)cc34)C3(CC[NH2+]CC3)C2)c(F)c1F</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CN1CCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCCOCC1</t>
+          <t>Cc1ccc(C(=O)N2C[C@@H](C(=O)NCCc3c(C)[nH]c4ccc(C#N)cc34)C3(CC[NH2+]CC3)C2)c(F)c1F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>512.61</v>
+        <v>520.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
         <v>5</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>77.73</v>
+        <v>105.6</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181FC0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C44714538</t>
+          <t>C05758830</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)N2C[C@@H](C(=O)NCCc3c(C)[nH]c4ccc(C#N)cc34)C3(CC[NH2+]CC3)C2)c(F)c1F</t>
+          <t>Oc1cc(O)cc([C@@H]2c3c(/C=C/c4ccc(O)c(O)c4)cc(O)cc3O[C@@H]2c2ccc(O)c(O)c2)c1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)N2C[C@@H](C(=O)NCCc3c(C)[nH]c4ccc(C#N)cc34)C3(CC[NH2+]CC3)C2)c(F)c1F</t>
+          <t>Oc1cc(O)cc([C@@H]2c3c(/C=C/c4ccc(O)c(O)c4)cc(O)cc3O[C@@H]2c2ccc(O)c(O)c2)c1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>520.6</v>
+        <v>486.48</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>105.6</v>
+        <v>150.84</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD182420&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C05758830</t>
+          <t>C15002964</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Oc1cc(O)cc([C@@H]2c3c(/C=C/c4ccc(O)c(O)c4)cc(O)cc3O[C@@H]2c2ccc(O)c(O)c2)c1</t>
+          <t>O=C1CC[C@H]([NH+]2C[C@H]3C[C@@H](C2)c2cccc(=O)n2C3)CCN1Cc1ccc(F)c(F)c1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Oc1cc(O)cc([C@@H]2c3c(/C=C/c4ccc(O)c(O)c4)cc(O)cc3O[C@@H]2c2ccc(O)c(O)c2)c1</t>
+          <t>O=C1CC[C@H]([NH+]2C[C@@H]3C[C@@H](Cn4c3cccc4=O)C2)CCN1Cc1ccc(F)c(F)c1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>486.48</v>
+        <v>428.5</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>150.84</v>
+        <v>46.75</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181B60&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C15002964</t>
+          <t>C13362213</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O=C1CC[C@H]([NH+]2C[C@H]3C[C@@H](C2)c2cccc(=O)n2C3)CCN1Cc1ccc(F)c(F)c1</t>
+          <t>CC1(C)O[C@]2(CC[C@@H]3[C@@H]4CC[C@H]5CCCC[C@]5(C)[C@@H]4CC[C@@]32C)CN1C(=O)CSC1=[NH+]CCN1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O=C1CC[C@H]([NH+]2C[C@@H]3C[C@@H](Cn4c3cccc4=O)C2)CCN1Cc1ccc(F)c(F)c1</t>
+          <t>CC1(C)O[C@]2(CC[C@@H]3[C@@H]4CC[C@H]5CCCC[C@]5(C)[C@@H]4CC[C@@]32C)CN1C(=O)CSC1=[NH+]CCN1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>428.5</v>
+        <v>488.76</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>46.75</v>
+        <v>55.54</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD182030&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C13362213</t>
+          <t>C65458193</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CC1(C)O[C@]2(CC[C@@H]3[C@@H]4CC[C@H]5CCCC[C@]5(C)[C@@H]4CC[C@@]32C)CN1C(=O)CSC1=[NH+]CCN1</t>
+          <t>Cc1nc(NCc2nnc3n2CCCCC3)c2c([nH+]1)CC[NH+](C)CC2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CC1(C)O[C@]2(CC[C@@H]3[C@@H]4CC[C@H]5CCCC[C@]5(C)[C@@H]4CC[C@@]32C)CN1C(=O)CSC1=[NH+]CCN1</t>
+          <t>Cc1nc(NCc2nnc3n2CCCCC3)c2c([nH+]1)CC[NH+](C)CC2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>488.76</v>
+        <v>343.48</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -1944,16 +1944,16 @@
         <v>4</v>
       </c>
       <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" t="n">
         <v>2</v>
       </c>
-      <c r="K22" t="n">
-        <v>6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
-        <v>55.54</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1818C0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C65458193</t>
+          <t>C28540961</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cc1nc(NCc2nnc3n2CCCCC3)c2c([nH+]1)CC[NH+](C)CC2</t>
+          <t>O=C(Nc1cc(Br)ccc1Br)[C@@H]1COc2ccccc2O1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cc1nc(NCc2nnc3n2CCCCC3)c2c([nH+]1)CC[NH+](C)CC2</t>
+          <t>O=C(Nc1cc(Br)ccc1Br)[C@@H]1COc2ccccc2O1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>343.48</v>
+        <v>413.06</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>74.20999999999999</v>
+        <v>47.56</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBBB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD182570&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C28540961</t>
+          <t>C40729749</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O=C(Nc1cc(Br)ccc1Br)[C@@H]1COc2ccccc2O1</t>
+          <t>Cc1cccnc1Nc1[nH+]cnc(N2CCN(C(c3ccccc3)c3ccccc3)CC2)c1N</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O=C(Nc1cc(Br)ccc1Br)[C@@H]1COc2ccccc2O1</t>
+          <t>Cc1cccnc1Nc1[nH+]cnc(N2CCN(C(c3ccccc3)c3ccccc3)CC2)c1N</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>413.06</v>
+        <v>452.59</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>47.56</v>
+        <v>84.45</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBBCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD183ED0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C40729749</t>
+          <t>C13600823</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cc1cccnc1Nc1[nH+]cnc(N2CCN(C(c3ccccc3)c3ccccc3)CC2)c1N</t>
+          <t>C/N=C(\NC#N)NCc1cccc(-c2csc(N=C(N)N)n2)n1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cc1cccnc1Nc1[nH+]cnc(N2CCN(C(c3ccccc3)c3ccccc3)CC2)c1N</t>
+          <t>C/N=C(\NC#N)NCc1cccc(-c2csc(N=C(N)N)n2)n1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>452.59</v>
+        <v>329.39</v>
       </c>
       <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5</v>
-      </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>84.45</v>
+        <v>150.39</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBBA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1815B0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C13600823</t>
+          <t>C39007259</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C/N=C(\NC#N)NCc1cccc(-c2csc(N=C(N)N)n2)n1</t>
+          <t>[NH3+][C@@H]1C2=CC=C(c3cc[nH+]cc3)N[C@@H]2S[C@@H]1C(=O)Nc1nnc(SCc2ccccc2Cl)s1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C/N=C(\NC#N)NCc1cccc(-c2csc(N=C(N)N)n2)n1</t>
+          <t>[NH3+][C@@H]1C2=CC=C(c3cc[nH+]cc3)N[C@@H]2S[C@@H]1C(=O)Nc1nnc(SCc2ccccc2Cl)s1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>329.39</v>
+        <v>517.11</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>150.39</v>
+        <v>108.69</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1810E0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C39007259</t>
+          <t>C12736728</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[NH3+][C@@H]1C2=CC=C(c3cc[nH+]cc3)N[C@@H]2S[C@@H]1C(=O)Nc1nnc(SCc2ccccc2Cl)s1</t>
+          <t>CC(C)[C@@H](Nc1ccc(C(F)(F)F)cc1Cl)/C([O-])=N/c1nc(C(F)(F)F)n[nH]1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[NH3+][C@@H]1C2=CC=C(c3cc[nH+]cc3)N[C@@H]2S[C@@H]1C(=O)Nc1nnc(SCc2ccccc2Cl)s1</t>
+          <t>CC(C)[C@@H](Nc1ccc(C(F)(F)F)cc1Cl)/C([O-])=N/c1nc(C(F)(F)F)n[nH]1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>517.11</v>
+        <v>428.74</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>108.69</v>
+        <v>89.02</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD182CE0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C12736728</t>
+          <t>C18128541</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H](Nc1ccc(C(F)(F)F)cc1Cl)/C([O-])=N/c1nc(C(F)(F)F)n[nH]1</t>
+          <t>CCOc1ccc(N2C(=O)C[C@@H]([NH2+]C3CCN(c4ncc(Cl)cc4Cl)CC3)C2=O)cc1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H](Nc1ccc(C(F)(F)F)cc1Cl)/C([O-])=N/c1nc(C(F)(F)F)n[nH]1</t>
+          <t>CCOc1ccc(N2C(=O)C[C@@H]([NH2+]C3CCN(c4ncc(Cl)cc4Cl)CC3)C2=O)cc1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>428.74</v>
+        <v>464.37</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>89.02</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBA2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD183BC0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C18128541</t>
+          <t>C39984269</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CCOc1ccc(N2C(=O)C[C@@H]([NH2+]C3CCN(c4ncc(Cl)cc4Cl)CC3)C2=O)cc1</t>
+          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@H]1Nc1ccc2nsnc2c1)c1ccccc1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CCOc1ccc(N2C(=O)C[C@@H]([NH2+]C3CCN(c4ncc(Cl)cc4Cl)CC3)C2=O)cc1</t>
+          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@H]1Nc1ccc2nsnc2c1)c1ccccc1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>464.37</v>
+        <v>435.51</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>79.34999999999999</v>
+        <v>110.64</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB8DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181850&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C39984269</t>
+          <t>C67120815</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@H]1Nc1ccc2nsnc2c1)c1ccccc1</t>
+          <t>Cc1nn(C)c(C)c1CNCc1ccc(N2C[C@@H](C)O[C@H](C)C2)[nH+]c1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@H]1Nc1ccc2nsnc2c1)c1ccccc1</t>
+          <t>Cc1nn(C)c(C)c1CNCc1ccc(N2C[C@@H](C)O[C@H](C)C2)[nH+]c1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>435.51</v>
+        <v>344.48</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4</v>
-      </c>
       <c r="M30" t="n">
-        <v>110.64</v>
+        <v>56.46</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD183060&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C67120815</t>
+          <t>C20617556</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cc1nn(C)c(C)c1CNCc1ccc(N2C[C@@H](C)O[C@H](C)C2)[nH+]c1</t>
+          <t>Cc1ncc(CO)c2cc(C(=O)Nc3ccc(Br)cc3)/c(=[NH+]/c3ccc(F)cc3)oc12</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cc1nn(C)c(C)c1CNCc1ccc(N2C[C@@H](C)O[C@H](C)C2)[nH+]c1</t>
+          <t>Cc1ncc(CO)c2cc(C(=O)Nc3ccc(Br)cc3)/c(=[NH+]/c3ccc(F)cc3)oc12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2543,29 +2543,29 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>344.48</v>
+        <v>483.32</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>56.46</v>
+        <v>89.33</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD183530&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C20617556</t>
+          <t>C63572225</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cc1ncc(CO)c2cc(C(=O)Nc3ccc(Br)cc3)/c(=[NH+]/c3ccc(F)cc3)oc12</t>
+          <t>COc1ccc([C@H]2[C@H]3[NH+]=c4ccc(Cl)cc4=C3CCN2C(=O)Nc2cc(C)ccc2OC)cc1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cc1ncc(CO)c2cc(C(=O)Nc3ccc(Br)cc3)/c(=[NH+]/c3ccc(F)cc3)oc12</t>
+          <t>COc1ccc([C@H]2[C@H]3[NH+]=c4ccc(Cl)cc4=C3CCN2C(=O)Nc2cc(C)ccc2OC)cc1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>483.32</v>
+        <v>476.98</v>
       </c>
       <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
-        <v>4</v>
-      </c>
       <c r="J32" t="n">
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>89.33</v>
+        <v>64.77</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD182490&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C63572225</t>
+          <t>C01868949</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H]2[C@H]3[NH+]=c4ccc(Cl)cc4=C3CCN2C(=O)Nc2cc(C)ccc2OC)cc1</t>
+          <t>NC(=O)c1ccccc1NCc1c(C(=O)N/N=C/c2cc(Cl)ccc2O)nnn1-c1nonc1N</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H]2[C@H]3[NH+]=c4ccc(Cl)cc4=C3CCN2C(=O)Nc2cc(C)ccc2OC)cc1</t>
+          <t>NC(=O)c1ccccc1NCc1c(C(=O)N/N=C/c2cc(Cl)ccc2O)nnn1-c1nonc1N</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>476.98</v>
+        <v>496.88</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>64.77</v>
+        <v>212.46</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBB8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD183140&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C01868949</t>
+          <t>C24068193</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccccc1NCc1c(C(=O)N/N=C/c2cc(Cl)ccc2O)nnn1-c1nonc1N</t>
+          <t>CCOc1cc(C(=O)O[C@@H](C)C(=O)NCC(C)C)ccc1OCCOc1ccccc1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccccc1NCc1c(C(=O)N/N=C/c2cc(Cl)ccc2O)nnn1-c1nonc1N</t>
+          <t>CCOc1cc(C(=O)O[C@@H](C)C(=O)NCC(C)C)ccc1OCCOc1ccccc1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>496.88</v>
+        <v>429.51</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>212.46</v>
+        <v>83.09</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1835A0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C24068193</t>
+          <t>CHEMBL3719135</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CCOc1cc(C(=O)O[C@@H](C)C(=O)NCC(C)C)ccc1OCCOc1ccccc1</t>
+          <t>CC(C)n1nc(-c2cnc(N)c(OC(F)(F)F)c2)cc1[C@H]1[C@@H]2CN(C3COC3)C[C@@H]21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CCOc1cc(C(=O)O[C@@H](C)C(=O)NCC(C)C)ccc1OCCOc1ccccc1</t>
+          <t>CC(C)n1nc(-c2cnc(N)c(OC(F)(F)F)c2)cc1[C@@H]1[C@H]2CN(C3COC3)C[C@H]21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2815,11 +2815,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>429.51</v>
+        <v>423.44</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -2828,27 +2828,53 @@
         <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>83.09</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
+        <v>78.43000000000001</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>CHEMBL4120069</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Inhibition of PKCbeta1 (unknown origin) at 1 uM by FRET assay relative to control</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBB290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181A80&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2886,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL3719135</t>
+          <t>CHEMBL1644620</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2894,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(-c2cnc(N)c(OC(F)(F)F)c2)cc1[C@H]1[C@@H]2CN(C3COC3)C[C@@H]21</t>
+          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(-c2cnc(N)c(OC(F)(F)F)c2)cc1[C@@H]1[C@H]2CN(C3COC3)C[C@H]21</t>
+          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2913,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>423.44</v>
+        <v>387.44</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>78.43000000000001</v>
+        <v>84.83</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2923,16 +2949,16 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>CHEMBL4120069</t>
+          <t>CHEMBL1648816</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Inhibition of PKCbeta1 (unknown origin) at 1 uM by FRET assay relative to control</t>
+          <t>Inhibition of PRKCB1 at 10 uM after 60 mins by TR-FRET assay</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -2942,7 +2968,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB8A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD182D50&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2954,7 +2980,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL1644620</t>
+          <t>CHEMBL1516890</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2962,12 +2988,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
+          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
+          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2981,25 +3007,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>387.44</v>
+        <v>275.31</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>84.83</v>
+        <v>46.92</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3017,16 +3043,16 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>11</v>
+        <v>0.03</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>CHEMBL1648816</t>
+          <t>CHEMBL1961901</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Inhibition of PRKCB1 at 10 uM after 60 mins by TR-FRET assay</t>
+          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -3036,7 +3062,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD182180&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3048,7 +3074,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL1516890</t>
+          <t>CHEMBL157258</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3056,12 +3082,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
+          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
+          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3075,25 +3101,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>275.31</v>
+        <v>383.62</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" t="n">
         <v>2</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3</v>
-      </c>
       <c r="M38" t="n">
-        <v>46.92</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,16 +3137,16 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>0.03</v>
+        <v>2.54</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>CHEMBL1961901</t>
+          <t>CHEMBL1961910</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -3130,7 +3156,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB91C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1829D0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3142,7 +3168,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL157258</t>
+          <t>CHEMBL1909380</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3150,12 +3176,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
+          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
+          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3169,25 +3195,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>383.62</v>
+        <v>411.47</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>78.43000000000001</v>
+        <v>74.09</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3205,16 +3231,16 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>2.54</v>
+        <v>0.05</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>CHEMBL1961910</t>
+          <t>CHEMBL1961901</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -3224,7 +3250,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBA110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1820A0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3236,7 +3262,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL1909380</t>
+          <t>CHEMBL2062289</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3244,12 +3270,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
+          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
+          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3263,25 +3289,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>411.47</v>
+        <v>400.43</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>74.09</v>
+        <v>86.8</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3299,16 +3325,16 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>CHEMBL1961901</t>
+          <t>CHEMBL1961910</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -3318,7 +3344,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD183990&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3330,7 +3356,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL2062289</t>
+          <t>CHEMBL365663</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3338,12 +3364,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
+          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
+          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3357,25 +3383,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>400.43</v>
+        <v>338.82</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4</v>
+      </c>
+      <c r="J41" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>86.8</v>
+        <v>64.69</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3393,7 +3419,7 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>0.8</v>
+        <v>3.03</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3412,7 +3438,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1811C0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3424,7 +3450,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL365663</t>
+          <t>CHEMBL495902</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3432,12 +3458,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
+          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2[nH]ncc2c1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
+          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2[nH]ncc2c1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3451,25 +3477,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>338.82</v>
+        <v>291.35</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>64.69</v>
+        <v>57.78</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3487,16 +3513,16 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>3.03</v>
+        <v>-0.59</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>CHEMBL1961910</t>
+          <t>CHEMBL1961901</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -3506,104 +3532,10 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB8C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181620&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>CHEMBL495902</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2[nH]ncc2c1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2[nH]ncc2c1</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>291.35</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3</v>
-      </c>
-      <c r="M43" t="n">
-        <v>57.78</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL1961901</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB94D0&gt;</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
